--- a/Ticket3/ОУ_3.xlsx
+++ b/Ticket3/ОУ_3.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\giga-fs\Public\Пользователи\Провоторов Александр\!Личное\Обучение\Подготовка к спецу\Билет 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Пользователи\Провоторов Александр\!Личное\Обучение\Подготовка к спецу\Решения Спеца\1c_specialist\Ticket3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12336"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Общее" sheetId="1" r:id="rId1"/>
+    <sheet name="РН ОСТАТКИ" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,43 +24,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Провоторов Александр</author>
-  </authors>
-  <commentList>
-    <comment ref="D16" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Провоторов Александр:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-Без партии или списываем с той, в которой хватает кол-ва?
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="52">
   <si>
@@ -224,7 +187,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,21 +243,6 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -503,7 +451,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
@@ -517,15 +465,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -550,38 +489,16 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="5" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -599,6 +516,36 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="3" borderId="5" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="4"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -888,44 +835,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="40"/>
       <c r="C2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -939,7 +886,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -950,21 +897,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="14"/>
+      <c r="B7" s="41"/>
       <c r="C7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -972,13 +919,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -986,20 +933,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K13" s="15" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K13" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="K14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1010,7 +957,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="K15" s="8">
         <v>44562</v>
       </c>
@@ -1024,7 +971,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="K16" s="11">
         <v>44621</v>
       </c>
@@ -1038,527 +985,534 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I18" s="15" t="s">
+    <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I18" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
       <c r="O18" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I19" s="24" t="s">
+    <row r="19" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I19" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="J19" s="24" t="s">
+      <c r="J19" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="K19" s="16" t="s">
+      <c r="K19" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="L19" s="16" t="s">
+      <c r="L19" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="M19" s="16" t="s">
+      <c r="M19" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="N19" s="16" t="s">
+      <c r="N19" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="17" t="s">
+    <row r="20" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="L20" s="17" t="s">
+      <c r="L20" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="M20" s="17" t="s">
+      <c r="M20" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="N20" s="17" t="s">
+      <c r="N20" s="14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I21" s="18" t="s">
+    <row r="21" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I21" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="J21" s="26"/>
-      <c r="K21" s="20">
+      <c r="J21" s="32"/>
+      <c r="K21" s="17">
         <f>F25</f>
         <v>13</v>
       </c>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20">
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17">
         <f>K21+L21+M21</f>
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
+    <row r="22" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
       <c r="G22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I22" s="19"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="22">
+      <c r="I22" s="16"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="19">
         <f>F26</f>
         <v>5800</v>
       </c>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22">
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19">
         <f>K22+L22+M22</f>
         <v>5800</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+    <row r="23" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F23" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26" t="s">
+      <c r="I23" s="32"/>
+      <c r="J23" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="K23" s="20">
+      <c r="K23" s="17">
         <f>F25</f>
         <v>13</v>
       </c>
-      <c r="L23" s="26"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="29">
+      <c r="L23" s="32"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="21">
         <f>K23+M23</f>
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="17" t="s">
+    <row r="24" spans="1:15" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F24" s="17" t="s">
+      <c r="F24" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="30">
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="22">
         <f>F26</f>
         <v>5800</v>
       </c>
-      <c r="L24" s="28"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="18">
+      <c r="L24" s="33"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="15">
         <f>K24+M24</f>
         <v>5800</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="18" t="s">
+    <row r="25" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="20">
-        <f>Лист2!E3</f>
+      <c r="B25" s="32"/>
+      <c r="C25" s="17">
+        <f>'РН ОСТАТКИ'!E3</f>
         <v>10</v>
       </c>
-      <c r="D25" s="20">
-        <f>Лист2!E5</f>
+      <c r="D25" s="17">
+        <f>'РН ОСТАТКИ'!E5</f>
         <v>5</v>
       </c>
-      <c r="E25" s="20">
-        <f>Лист2!E6</f>
+      <c r="E25" s="17">
+        <f>'РН ОСТАТКИ'!E6</f>
         <v>-2</v>
       </c>
-      <c r="F25" s="20">
+      <c r="F25" s="17">
         <f>C25+D25+E25</f>
         <v>13</v>
       </c>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="19"/>
-    </row>
-    <row r="26" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="19"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="21">
-        <f>Лист2!F3</f>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="16"/>
+    </row>
+    <row r="26" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="16"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="18">
+        <f>'РН ОСТАТКИ'!F3</f>
         <v>1000</v>
       </c>
-      <c r="D26" s="22">
-        <f>Лист2!F5</f>
+      <c r="D26" s="19">
+        <f>'РН ОСТАТКИ'!F5</f>
         <v>5000</v>
       </c>
-      <c r="E26" s="22">
-        <f>Лист2!F6</f>
+      <c r="E26" s="19">
+        <f>'РН ОСТАТКИ'!F6</f>
         <v>-200</v>
       </c>
-      <c r="F26" s="22">
+      <c r="F26" s="19">
         <f>C26+D26+E26</f>
         <v>5800</v>
       </c>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34">
-        <f>Лист2!E16</f>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24">
+        <f>'РН ОСТАТКИ'!E16</f>
         <v>-5</v>
       </c>
-      <c r="N26" s="33"/>
-    </row>
-    <row r="27" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26" t="s">
+      <c r="N26" s="23"/>
+    </row>
+    <row r="27" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="32"/>
+      <c r="B27" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="20">
-        <f>Лист2!E3</f>
+      <c r="C27" s="17">
+        <f>'РН ОСТАТКИ'!E3</f>
         <v>10</v>
       </c>
-      <c r="D27" s="26"/>
-      <c r="E27" s="20">
-        <f>Лист2!E6</f>
+      <c r="D27" s="32"/>
+      <c r="E27" s="17">
+        <f>'РН ОСТАТКИ'!E6</f>
         <v>-2</v>
       </c>
-      <c r="F27" s="29">
+      <c r="F27" s="21">
         <f>C27+E27</f>
         <v>8</v>
       </c>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="38">
-        <f>Лист2!F16</f>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="27">
+        <f>'РН ОСТАТКИ'!F16</f>
         <v>-2230.7692307692309</v>
       </c>
-      <c r="N27" s="39"/>
-    </row>
-    <row r="28" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="20">
-        <f>Лист2!F3</f>
+      <c r="N27" s="28"/>
+    </row>
+    <row r="28" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="17">
+        <f>'РН ОСТАТКИ'!F3</f>
         <v>1000</v>
       </c>
-      <c r="D28" s="28"/>
-      <c r="E28" s="20">
-        <f>Лист2!F6</f>
+      <c r="D28" s="33"/>
+      <c r="E28" s="17">
+        <f>'РН ОСТАТКИ'!F6</f>
         <v>-200</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="15">
         <f>C28+E28</f>
         <v>800</v>
       </c>
-      <c r="I28" s="18" t="s">
+      <c r="I28" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="J28" s="26"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20">
+      <c r="J28" s="32"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17">
         <f>K28+L28+M28</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22">
+    <row r="29" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19">
         <f>K29+L29+M29</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26" t="s">
+    <row r="30" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="32"/>
+      <c r="B30" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="29">
-        <f>Лист2!E5</f>
+      <c r="C30" s="17"/>
+      <c r="D30" s="21">
+        <f>'РН ОСТАТКИ'!E5</f>
         <v>5</v>
       </c>
-      <c r="E30" s="29"/>
-      <c r="F30" s="20">
-        <f>C30+D30+E30</f>
+      <c r="E30" s="21"/>
+      <c r="F30" s="17">
+        <f t="shared" ref="F30:F35" si="0">C30+D30+E30</f>
         <v>5</v>
       </c>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="29">
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="21">
         <f>K30+L30+M30</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="19">
-        <f>Лист2!F5</f>
+    <row r="31" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="16">
+        <f>'РН ОСТАТКИ'!F5</f>
         <v>5000</v>
       </c>
-      <c r="E31" s="19"/>
-      <c r="F31" s="22">
-        <f>C31+D31+E31</f>
+      <c r="E31" s="16"/>
+      <c r="F31" s="19">
+        <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="18">
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="15">
         <f>K31+L31+M31</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="18" t="s">
+    <row r="32" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="26"/>
-      <c r="C32" s="20">
-        <f>Лист2!E4</f>
+      <c r="B32" s="32"/>
+      <c r="C32" s="17">
+        <f>'РН ОСТАТКИ'!E4</f>
         <v>50</v>
       </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20">
-        <f>C32+D32+E32</f>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="19"/>
-    </row>
-    <row r="33" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="19"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="21">
-        <f>Лист2!F4</f>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="16"/>
+    </row>
+    <row r="33" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="16"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="18">
+        <f>'РН ОСТАТКИ'!F4</f>
         <v>10000</v>
       </c>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22">
-        <f>C33+D33+E33</f>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19">
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="I33" s="18" t="s">
+      <c r="I33" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="J33" s="26"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="20">
+      <c r="J33" s="32"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17">
         <f>K33+L33+M33</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="26"/>
-      <c r="B34" s="26" t="s">
+    <row r="34" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="32"/>
+      <c r="B34" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="20">
+      <c r="C34" s="17">
         <v>50</v>
       </c>
-      <c r="D34" s="29"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="29">
-        <f>C34+D34+E34</f>
+      <c r="D34" s="21"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="21">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="I34" s="19"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="22">
+      <c r="I34" s="16"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19">
         <f>K34+L34+M34</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="28"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="20">
+    <row r="35" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="33"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="17">
         <v>10000</v>
       </c>
-      <c r="D35" s="18"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="18">
-        <f>C35+D35+E35</f>
+      <c r="D35" s="15"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="15">
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="29">
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="21">
         <f>K35+L35+M35</f>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="27"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="19"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="18">
+    <row r="36" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="34"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="16"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="15">
         <f>K36+L36+M36</f>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
+    <row r="37" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="26"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20">
-        <f>Лист2!E7</f>
+      <c r="B37" s="32"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17">
+        <f>'РН ОСТАТКИ'!E7</f>
         <v>100</v>
       </c>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20">
+      <c r="E37" s="17"/>
+      <c r="F37" s="17">
         <f>C37+D37+E37</f>
         <v>100</v>
       </c>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="19"/>
-    </row>
-    <row r="38" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="19"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="22">
-        <f>Лист2!F7</f>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="16"/>
+    </row>
+    <row r="38" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="16"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="19">
+        <f>'РН ОСТАТКИ'!F7</f>
         <v>1000</v>
       </c>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22">
+      <c r="E38" s="19"/>
+      <c r="F38" s="19">
         <f>C38+D38+E38</f>
         <v>1000</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="26"/>
-      <c r="B39" s="26" t="s">
+    <row r="39" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="32"/>
+      <c r="B39" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="29">
-        <f>Лист2!E7</f>
+      <c r="C39" s="17"/>
+      <c r="D39" s="21">
+        <f>'РН ОСТАТКИ'!E7</f>
         <v>100</v>
       </c>
-      <c r="E39" s="20"/>
-      <c r="F39" s="29">
+      <c r="E39" s="17"/>
+      <c r="F39" s="21">
         <f>C39+D39+E39</f>
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="28"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="18">
-        <f>Лист2!F7</f>
+    <row r="40" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="33"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="15">
+        <f>'РН ОСТАТКИ'!F7</f>
         <v>1000</v>
       </c>
-      <c r="E40" s="20"/>
-      <c r="F40" s="18">
+      <c r="E40" s="17"/>
+      <c r="F40" s="15">
         <f>C40+D40+E40</f>
         <v>1000</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="27"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="19"/>
+    <row r="41" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="34"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="J30:J32"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="I35:I37"/>
-    <mergeCell ref="J35:J37"/>
-    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
     <mergeCell ref="A39:A41"/>
     <mergeCell ref="B39:B41"/>
     <mergeCell ref="I18:N18"/>
@@ -1575,18 +1529,11 @@
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="B34:B36"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="J30:J32"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="I35:I37"/>
+    <mergeCell ref="J35:J37"/>
+    <mergeCell ref="B37:B38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1594,34 +1541,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1641,7 +1588,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>44593</v>
       </c>
@@ -1661,7 +1608,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>44593</v>
       </c>
@@ -1681,7 +1628,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>44597</v>
       </c>
@@ -1701,7 +1648,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>44597</v>
       </c>
@@ -1722,7 +1669,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>44598</v>
       </c>
@@ -1742,8 +1689,8 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="40">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="29">
         <v>44621</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -1762,8 +1709,8 @@
         <v>-800</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="40">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="29">
         <v>44621</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -1782,8 +1729,8 @@
         <v>-10000</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="40">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="29">
         <v>44621</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -1802,8 +1749,8 @@
         <v>-5000</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="40">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="29">
         <v>44621</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -1822,61 +1769,61 @@
         <v>-1000</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="41">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="30">
         <v>44621</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42">
+      <c r="D12" s="31"/>
+      <c r="E12" s="31">
         <v>13</v>
       </c>
-      <c r="F12" s="42">
+      <c r="F12" s="31">
         <v>5800</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="41">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="30">
         <v>44621</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42">
+      <c r="D13" s="31"/>
+      <c r="E13" s="31">
         <v>50</v>
       </c>
-      <c r="F13" s="42">
+      <c r="F13" s="31">
         <v>10000</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="41">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="30">
         <v>44621</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42">
+      <c r="D14" s="31"/>
+      <c r="E14" s="31">
         <v>100</v>
       </c>
-      <c r="F14" s="42">
+      <c r="F14" s="31">
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>44621</v>
       </c>
@@ -1894,26 +1841,26 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="10">
         <v>44622</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="12">
+      <c r="D16" s="4"/>
+      <c r="E16" s="4">
         <v>-5</v>
       </c>
-      <c r="F16" s="31">
+      <c r="F16" s="4">
         <f>E16/E12*F12</f>
         <v>-2230.7692307692309</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>44652</v>
       </c>
@@ -1932,11 +1879,11 @@
         <f>F12+F16</f>
         <v>3569.2307692307691</v>
       </c>
-      <c r="G17" s="43" t="s">
+      <c r="G17" s="42" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>44652</v>
       </c>
@@ -1955,9 +1902,9 @@
         <f>F13</f>
         <v>10000</v>
       </c>
-      <c r="G18" s="43"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G18" s="42"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>44652</v>
       </c>
@@ -1976,9 +1923,9 @@
         <f>F14+F15</f>
         <v>2000</v>
       </c>
-      <c r="G19" s="43"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="42"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>44652</v>
       </c>
@@ -1997,11 +1944,11 @@
       <c r="F20" s="4">
         <v>3569.2307692307691</v>
       </c>
-      <c r="G20" s="43" t="s">
+      <c r="G20" s="42" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>44652</v>
       </c>
@@ -2020,9 +1967,9 @@
       <c r="F21" s="4">
         <v>10000</v>
       </c>
-      <c r="G21" s="43"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G21" s="42"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>44652</v>
       </c>
@@ -2041,7 +1988,7 @@
       <c r="F22" s="4">
         <v>2000</v>
       </c>
-      <c r="G22" s="43"/>
+      <c r="G22" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2050,6 +1997,6 @@
     <mergeCell ref="G20:G22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Ticket3/ОУ_3.xlsx
+++ b/Ticket3/ОУ_3.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Пользователи\Провоторов Александр\!Личное\Обучение\Подготовка к спецу\Решения Спеца\1c_specialist\Ticket3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Пользователи\Провоторов Александр\!Личное\Обучение\Подготовка к спецу\Билет 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12336"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Общее" sheetId="1" r:id="rId1"/>
-    <sheet name="РН ОСТАТКИ" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,8 +24,45 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Провоторов Александр</author>
+  </authors>
+  <commentList>
+    <comment ref="D16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Провоторов Александр:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Без партии или списываем с той, в которой хватает кол-ва?
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="55">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -180,14 +217,23 @@
     <t>УП3</t>
   </si>
   <si>
-    <t>РАСХОД</t>
+    <t>ПН4</t>
+  </si>
+  <si>
+    <t>ПН5</t>
+  </si>
+  <si>
+    <t>РН3</t>
+  </si>
+  <si>
+    <t>УП4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,8 +291,47 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -286,8 +371,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFECCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -434,15 +525,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -451,7 +533,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
@@ -462,7 +544,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -513,9 +594,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="5" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="4"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -546,9 +624,20 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="9" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="11" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="9" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="10" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Вывод" xfId="2" builtinId="21"/>
@@ -559,6 +648,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFECCCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -835,44 +929,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" customWidth="1"/>
-    <col min="12" max="12" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="40"/>
+      <c r="B2" s="36"/>
       <c r="C2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -886,7 +980,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -897,21 +991,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="41" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="41"/>
+      <c r="B7" s="37"/>
       <c r="C7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -919,13 +1013,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -933,20 +1027,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="K13" s="35" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K13" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K14" s="3" t="s">
         <v>5</v>
       </c>
@@ -957,7 +1051,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K15" s="8">
         <v>44562</v>
       </c>
@@ -971,533 +1065,533 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="K16" s="11">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K16" s="10">
         <v>44621</v>
       </c>
-      <c r="L16" s="12" t="s">
+      <c r="L16" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="M16" s="12" t="s">
+      <c r="M16" s="11" t="s">
         <v>31</v>
       </c>
       <c r="N16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I18" s="35" t="s">
+    <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I18" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
       <c r="O18" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="I19" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="J19" s="36" t="s">
+    <row r="19" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I19" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="K19" s="13" t="s">
+      <c r="K19" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="L19" s="13" t="s">
+      <c r="L19" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="M19" s="13" t="s">
+      <c r="M19" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="N19" s="13" t="s">
+      <c r="N19" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="14" t="s">
+    <row r="20" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="L20" s="14" t="s">
+      <c r="L20" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="M20" s="14" t="s">
+      <c r="M20" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="N20" s="14" t="s">
+      <c r="N20" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="I21" s="15" t="s">
+    <row r="21" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I21" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="J21" s="32"/>
-      <c r="K21" s="17">
+      <c r="J21" s="28"/>
+      <c r="K21" s="16" t="e">
         <f>F25</f>
-        <v>13</v>
-      </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17">
+        <v>#REF!</v>
+      </c>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16" t="e">
         <f>K21+L21+M21</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="35" t="s">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
       <c r="G22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I22" s="16"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="19">
+      <c r="I22" s="15"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="18" t="e">
         <f>F26</f>
-        <v>5800</v>
-      </c>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19">
+        <v>#REF!</v>
+      </c>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18" t="e">
         <f>K22+L22+M22</f>
-        <v>5800</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="36" t="s">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32" t="s">
+      <c r="I23" s="28"/>
+      <c r="J23" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="K23" s="17">
+      <c r="K23" s="16" t="e">
         <f>F25</f>
-        <v>13</v>
-      </c>
-      <c r="L23" s="32"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="21">
+        <v>#REF!</v>
+      </c>
+      <c r="L23" s="28"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="20" t="e">
         <f>K23+M23</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="14" t="s">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="22">
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="21" t="e">
         <f>F26</f>
-        <v>5800</v>
-      </c>
-      <c r="L24" s="33"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="15">
+        <v>#REF!</v>
+      </c>
+      <c r="L24" s="29"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="14" t="e">
         <f>K24+M24</f>
-        <v>5800</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="15" t="s">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="17">
-        <f>'РН ОСТАТКИ'!E3</f>
-        <v>10</v>
-      </c>
-      <c r="D25" s="17">
-        <f>'РН ОСТАТКИ'!E5</f>
-        <v>5</v>
-      </c>
-      <c r="E25" s="17">
-        <f>'РН ОСТАТКИ'!E6</f>
-        <v>-2</v>
-      </c>
-      <c r="F25" s="17">
+      <c r="B25" s="28"/>
+      <c r="C25" s="16" t="e">
+        <f>Лист2!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D25" s="16" t="e">
+        <f>Лист2!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E25" s="16" t="e">
+        <f>Лист2!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F25" s="16" t="e">
         <f>C25+D25+E25</f>
-        <v>13</v>
-      </c>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="16"/>
-    </row>
-    <row r="26" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="16"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="18">
-        <f>'РН ОСТАТКИ'!F3</f>
-        <v>1000</v>
-      </c>
-      <c r="D26" s="19">
-        <f>'РН ОСТАТКИ'!F5</f>
-        <v>5000</v>
-      </c>
-      <c r="E26" s="19">
-        <f>'РН ОСТАТКИ'!F6</f>
-        <v>-200</v>
-      </c>
-      <c r="F26" s="19">
+        <v>#REF!</v>
+      </c>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="15"/>
+    </row>
+    <row r="26" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="15"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="17" t="e">
+        <f>Лист2!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D26" s="18" t="e">
+        <f>Лист2!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E26" s="18" t="e">
+        <f>Лист2!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F26" s="18" t="e">
         <f>C26+D26+E26</f>
-        <v>5800</v>
-      </c>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24">
-        <f>'РН ОСТАТКИ'!E16</f>
-        <v>-5</v>
-      </c>
-      <c r="N26" s="23"/>
-    </row>
-    <row r="27" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32" t="s">
+        <v>#REF!</v>
+      </c>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23" t="e">
+        <f>Лист2!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N26" s="22"/>
+    </row>
+    <row r="27" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="28"/>
+      <c r="B27" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="17">
-        <f>'РН ОСТАТКИ'!E3</f>
-        <v>10</v>
-      </c>
-      <c r="D27" s="32"/>
-      <c r="E27" s="17">
-        <f>'РН ОСТАТКИ'!E6</f>
-        <v>-2</v>
-      </c>
-      <c r="F27" s="21">
+      <c r="C27" s="16" t="e">
+        <f>Лист2!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D27" s="28"/>
+      <c r="E27" s="16" t="e">
+        <f>Лист2!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F27" s="20" t="e">
         <f>C27+E27</f>
-        <v>8</v>
-      </c>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="27">
-        <f>'РН ОСТАТКИ'!F16</f>
-        <v>-2230.7692307692309</v>
-      </c>
-      <c r="N27" s="28"/>
-    </row>
-    <row r="28" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="33"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="17">
-        <f>'РН ОСТАТКИ'!F3</f>
-        <v>1000</v>
-      </c>
-      <c r="D28" s="33"/>
-      <c r="E28" s="17">
-        <f>'РН ОСТАТКИ'!F6</f>
-        <v>-200</v>
-      </c>
-      <c r="F28" s="15">
+        <v>#REF!</v>
+      </c>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="26" t="e">
+        <f>Лист2!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N27" s="27"/>
+    </row>
+    <row r="28" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="16" t="e">
+        <f>Лист2!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D28" s="29"/>
+      <c r="E28" s="16" t="e">
+        <f>Лист2!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F28" s="14" t="e">
         <f>C28+E28</f>
-        <v>800</v>
-      </c>
-      <c r="I28" s="15" t="s">
+        <v>#REF!</v>
+      </c>
+      <c r="I28" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="J28" s="32"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17">
+      <c r="J28" s="28"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16">
         <f>K28+L28+M28</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="34"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19">
+    <row r="29" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18">
         <f>K29+L29+M29</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="32"/>
-      <c r="B30" s="32" t="s">
+    <row r="30" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="28"/>
+      <c r="B30" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="21">
-        <f>'РН ОСТАТКИ'!E5</f>
-        <v>5</v>
-      </c>
-      <c r="E30" s="21"/>
-      <c r="F30" s="17">
+      <c r="C30" s="16"/>
+      <c r="D30" s="20" t="e">
+        <f>Лист2!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E30" s="20"/>
+      <c r="F30" s="16" t="e">
         <f t="shared" ref="F30:F35" si="0">C30+D30+E30</f>
-        <v>5</v>
-      </c>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="21">
+        <v>#REF!</v>
+      </c>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="20">
         <f>K30+L30+M30</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="34"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="16">
-        <f>'РН ОСТАТКИ'!F5</f>
-        <v>5000</v>
-      </c>
-      <c r="E31" s="16"/>
-      <c r="F31" s="19">
+    <row r="31" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="30"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="15" t="e">
+        <f>Лист2!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E31" s="15"/>
+      <c r="F31" s="18" t="e">
         <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="15">
+        <v>#REF!</v>
+      </c>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="14">
         <f>K31+L31+M31</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="15" t="s">
+    <row r="32" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="17">
-        <f>'РН ОСТАТКИ'!E4</f>
+      <c r="B32" s="28"/>
+      <c r="C32" s="16" t="e">
+        <f>Лист2!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="15"/>
+    </row>
+    <row r="33" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="15"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="17" t="e">
+        <f>Лист2!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I33" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J33" s="28"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16">
+        <f>K33+L33+M33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="28"/>
+      <c r="B34" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="16">
         <v>50</v>
       </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17">
+      <c r="D34" s="20"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="20">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="16"/>
-    </row>
-    <row r="33" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="16"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="18">
-        <f>'РН ОСТАТКИ'!F4</f>
+      <c r="I34" s="15"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18">
+        <f>K34+L34+M34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="16">
         <v>10000</v>
       </c>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19">
+      <c r="D35" s="14"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="14">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="I33" s="15" t="s">
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="20">
+        <f>K35+L35+M35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="30"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="15"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="14">
+        <f>K36+L36+M36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J33" s="32"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17">
-        <f>K33+L33+M33</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="32"/>
-      <c r="B34" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="17">
-        <v>50</v>
-      </c>
-      <c r="D34" s="21"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="21">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="I34" s="16"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19">
-        <f>K34+L34+M34</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="33"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="17">
-        <v>10000</v>
-      </c>
-      <c r="D35" s="15"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="15">
-        <f t="shared" si="0"/>
-        <v>10000</v>
-      </c>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="21">
-        <f>K35+L35+M35</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="34"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="16"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="15">
-        <f>K36+L36+M36</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" s="32"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17">
-        <f>'РН ОСТАТКИ'!E7</f>
-        <v>100</v>
-      </c>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17">
+      <c r="B37" s="28"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16" t="e">
+        <f>Лист2!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16" t="e">
         <f>C37+D37+E37</f>
-        <v>100</v>
-      </c>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="16"/>
-    </row>
-    <row r="38" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="16"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="19">
-        <f>'РН ОСТАТКИ'!F7</f>
-        <v>1000</v>
-      </c>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19">
+        <v>#REF!</v>
+      </c>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="15"/>
+    </row>
+    <row r="38" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="15"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="18" t="e">
+        <f>Лист2!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18" t="e">
         <f>C38+D38+E38</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="32"/>
-      <c r="B39" s="32" t="s">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="28"/>
+      <c r="B39" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="17"/>
-      <c r="D39" s="21">
-        <f>'РН ОСТАТКИ'!E7</f>
-        <v>100</v>
-      </c>
-      <c r="E39" s="17"/>
-      <c r="F39" s="21">
+      <c r="C39" s="16"/>
+      <c r="D39" s="20" t="e">
+        <f>Лист2!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E39" s="16"/>
+      <c r="F39" s="20" t="e">
         <f>C39+D39+E39</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="33"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="15">
-        <f>'РН ОСТАТКИ'!F7</f>
-        <v>1000</v>
-      </c>
-      <c r="E40" s="17"/>
-      <c r="F40" s="15">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="29"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="14" t="e">
+        <f>Лист2!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E40" s="16"/>
+      <c r="F40" s="14" t="e">
         <f>C40+D40+E40</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="34"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="16"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="30"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="33">
@@ -1541,34 +1635,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1588,7 +1683,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>44593</v>
       </c>
@@ -1608,395 +1703,612 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>44593</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="9">
         <v>50</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="9">
         <v>10000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <v>44597</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="9">
         <v>5</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="9">
         <v>5000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="38">
         <v>44597</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="9">
-        <v>-2</v>
-      </c>
-      <c r="F6" s="9">
+      <c r="E6" s="39">
+        <v>2</v>
+      </c>
+      <c r="F6" s="39">
         <f>E6/E3*F3</f>
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
         <v>44598</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="9">
         <v>100</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="9">
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="29">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="45">
         <v>44621</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="6">
-        <v>-8</v>
-      </c>
-      <c r="F8" s="6">
-        <v>-800</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="29">
+      <c r="E8" s="46">
+        <v>0</v>
+      </c>
+      <c r="F8" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="45">
         <v>44621</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="6">
-        <v>-50</v>
-      </c>
-      <c r="F9" s="6">
-        <v>-10000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="29">
+      <c r="E9" s="46">
+        <v>0</v>
+      </c>
+      <c r="F9" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="45">
         <v>44621</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="6">
-        <v>-5</v>
-      </c>
-      <c r="F10" s="6">
-        <v>-5000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="29">
+      <c r="E10" s="46">
+        <v>0</v>
+      </c>
+      <c r="F10" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="45">
         <v>44621</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="6">
-        <v>-100</v>
-      </c>
-      <c r="F11" s="6">
-        <v>-1000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="30">
+      <c r="E11" s="46">
+        <v>0</v>
+      </c>
+      <c r="F11" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="50">
         <v>44621</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31">
+      <c r="D12" s="51"/>
+      <c r="E12" s="51">
+        <f>E3+E5-E6</f>
         <v>13</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="51">
+        <f>F3+F5-F6</f>
         <v>5800</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="30">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="50">
         <v>44621</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31">
+      <c r="D13" s="51"/>
+      <c r="E13" s="51">
+        <f>E4</f>
         <v>50</v>
       </c>
-      <c r="F13" s="31">
+      <c r="F13" s="51">
+        <f>F4</f>
         <v>10000</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="30">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="50">
         <v>44621</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31">
+      <c r="D14" s="51"/>
+      <c r="E14" s="51">
+        <f>E7</f>
         <v>100</v>
       </c>
-      <c r="F14" s="31">
+      <c r="F14" s="51">
+        <f>F7</f>
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="10">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
         <v>44621</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4">
+      <c r="D15" s="9"/>
+      <c r="E15" s="9">
         <v>100</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="9">
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="10">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="38">
         <v>44622</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4">
-        <v>-5</v>
-      </c>
-      <c r="F16" s="4">
+      <c r="D16" s="40"/>
+      <c r="E16" s="39">
+        <v>5</v>
+      </c>
+      <c r="F16" s="41">
         <f>E16/E12*F12</f>
-        <v>-2230.7692307692309</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
+        <v>2230.7692307692309</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="43">
         <v>44652</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4">
-        <f>E12+E16</f>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44">
+        <v>0</v>
+      </c>
+      <c r="F17" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="43">
+        <v>44652</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44">
+        <v>0</v>
+      </c>
+      <c r="F18" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="43">
+        <v>44652</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44">
+        <v>0</v>
+      </c>
+      <c r="F19" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>44652</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="9">
+        <f>E12-E16</f>
         <v>8</v>
       </c>
-      <c r="F17" s="4">
-        <f>F12+F16</f>
+      <c r="F20" s="42">
+        <f>F12-F16</f>
         <v>3569.2307692307691</v>
       </c>
-      <c r="G17" s="42" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="10">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
         <v>44652</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B21" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C21" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4">
+      <c r="D21" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="9">
         <f>E13</f>
         <v>50</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F21" s="9">
         <f>F13</f>
         <v>10000</v>
       </c>
-      <c r="G18" s="42"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="10">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
         <v>44652</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B22" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C22" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4">
+      <c r="D22" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="9">
         <f>E14+E15</f>
         <v>200</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F22" s="9">
         <f>F14+F15</f>
         <v>2000</v>
       </c>
-      <c r="G19" s="42"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="10">
-        <v>44652</v>
-      </c>
-      <c r="B20" s="4" t="s">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>44653</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="9">
+        <v>10</v>
+      </c>
+      <c r="F23" s="9">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>44654</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="9">
         <v>50</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="F24" s="9">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="38">
+        <v>44655</v>
+      </c>
+      <c r="B25" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D25" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="4">
-        <v>8</v>
-      </c>
-      <c r="F20" s="4">
-        <v>3569.2307692307691</v>
-      </c>
-      <c r="G20" s="42" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="10">
-        <v>44652</v>
-      </c>
-      <c r="B21" s="4" t="s">
+      <c r="E25" s="39">
+        <v>3</v>
+      </c>
+      <c r="F25" s="39">
+        <f>E25/E20*F20</f>
+        <v>1338.4615384615383</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="38">
+        <v>44655</v>
+      </c>
+      <c r="B26" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="E26" s="39">
+        <v>200</v>
+      </c>
+      <c r="F26" s="39">
+        <f>E26/E22*F22</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="43">
+        <v>44682</v>
+      </c>
+      <c r="B27" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="44">
+        <v>0</v>
+      </c>
+      <c r="F27" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="43">
+        <v>44682</v>
+      </c>
+      <c r="B28" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D28" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E28" s="44">
+        <v>0</v>
+      </c>
+      <c r="F28" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="43">
+        <v>44682</v>
+      </c>
+      <c r="B29" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="44">
+        <v>0</v>
+      </c>
+      <c r="F29" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="43">
+        <v>44682</v>
+      </c>
+      <c r="B30" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="44">
+        <v>0</v>
+      </c>
+      <c r="F30" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="47">
+        <v>44682</v>
+      </c>
+      <c r="B31" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48">
+        <f>E20+E23-E25</f>
+        <v>15</v>
+      </c>
+      <c r="F31" s="49">
+        <f>F20+F23-F25</f>
+        <v>7230.7692307692314</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="47">
+        <v>44682</v>
+      </c>
+      <c r="B32" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48">
+        <f>E21</f>
         <v>50</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F32" s="48">
+        <f>F21</f>
         <v>10000</v>
       </c>
-      <c r="G21" s="42"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="10">
-        <v>44652</v>
-      </c>
-      <c r="B22" s="4" t="s">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="47">
+        <v>44682</v>
+      </c>
+      <c r="B33" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48">
+        <f>E22+E24-E26</f>
         <v>50</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" s="4">
-        <v>200</v>
-      </c>
-      <c r="F22" s="4">
-        <v>2000</v>
-      </c>
-      <c r="G22" s="42"/>
+      <c r="F33" s="48">
+        <f>F22+F24-F26</f>
+        <v>10000</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="G20:G22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Ticket3/ОУ_3.xlsx
+++ b/Ticket3/ОУ_3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Пользователи\Провоторов Александр\!Личное\Обучение\Подготовка к спецу\Билет 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Пользователи\Провоторов Александр\!Личное\Обучение\Подготовка к спецу\Решения Спеца\1c_specialist\Ticket3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,45 +24,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Провоторов Александр</author>
-  </authors>
-  <commentList>
-    <comment ref="D16" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Провоторов Александр:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-Без партии или списываем с той, в которой хватает кол-ва?
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="55">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -233,7 +196,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,21 +252,6 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
@@ -594,50 +542,50 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="9" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="11" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="9" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="10" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="7" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="9" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="8" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Вывод" xfId="2" builtinId="21"/>
@@ -958,10 +906,10 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="36"/>
+      <c r="B2" s="45"/>
       <c r="C2" t="s">
         <v>8</v>
       </c>
@@ -997,10 +945,10 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="37"/>
+      <c r="B7" s="46"/>
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -1034,11 +982,11 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K13" s="31" t="s">
+      <c r="K13" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K14" s="3" t="s">
@@ -1080,23 +1028,23 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I18" s="31" t="s">
+      <c r="I18" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
       <c r="O18" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I19" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="J19" s="32" t="s">
+      <c r="I19" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" s="48" t="s">
         <v>1</v>
       </c>
       <c r="K19" s="12" t="s">
@@ -1113,8 +1061,8 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
       <c r="K20" s="13" t="s">
         <v>37</v>
       </c>
@@ -1132,7 +1080,7 @@
       <c r="I21" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="J21" s="28"/>
+      <c r="J21" s="42"/>
       <c r="K21" s="16" t="e">
         <f>F25</f>
         <v>#REF!</v>
@@ -1145,19 +1093,19 @@
       </c>
     </row>
     <row r="22" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
       <c r="G22" s="2" t="s">
         <v>46</v>
       </c>
       <c r="I22" s="15"/>
-      <c r="J22" s="30"/>
+      <c r="J22" s="44"/>
       <c r="K22" s="18" t="e">
         <f>F26</f>
         <v>#REF!</v>
@@ -1170,10 +1118,10 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="32" t="s">
+      <c r="A23" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="48" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="12" t="s">
@@ -1188,15 +1136,15 @@
       <c r="F23" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28" t="s">
+      <c r="I23" s="42"/>
+      <c r="J23" s="42" t="s">
         <v>45</v>
       </c>
       <c r="K23" s="16" t="e">
         <f>F25</f>
         <v>#REF!</v>
       </c>
-      <c r="L23" s="28"/>
+      <c r="L23" s="42"/>
       <c r="M23" s="16"/>
       <c r="N23" s="20" t="e">
         <f>K23+M23</f>
@@ -1204,8 +1152,8 @@
       </c>
     </row>
     <row r="24" spans="1:15" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="49"/>
       <c r="C24" s="13" t="s">
         <v>37</v>
       </c>
@@ -1218,13 +1166,13 @@
       <c r="F24" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
       <c r="K24" s="21" t="e">
         <f>F26</f>
         <v>#REF!</v>
       </c>
-      <c r="L24" s="29"/>
+      <c r="L24" s="43"/>
       <c r="M24" s="16"/>
       <c r="N24" s="14" t="e">
         <f>K24+M24</f>
@@ -1235,7 +1183,7 @@
       <c r="A25" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="28"/>
+      <c r="B25" s="42"/>
       <c r="C25" s="16" t="e">
         <f>Лист2!#REF!</f>
         <v>#REF!</v>
@@ -1252,16 +1200,16 @@
         <f>C25+D25+E25</f>
         <v>#REF!</v>
       </c>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
       <c r="K25" s="19"/>
-      <c r="L25" s="30"/>
+      <c r="L25" s="44"/>
       <c r="M25" s="17"/>
       <c r="N25" s="15"/>
     </row>
     <row r="26" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="15"/>
-      <c r="B26" s="30"/>
+      <c r="B26" s="44"/>
       <c r="C26" s="17" t="e">
         <f>Лист2!#REF!</f>
         <v>#REF!</v>
@@ -1278,8 +1226,8 @@
         <f>C26+D26+E26</f>
         <v>#REF!</v>
       </c>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
       <c r="K26" s="22"/>
       <c r="L26" s="23"/>
       <c r="M26" s="23" t="e">
@@ -1289,15 +1237,15 @@
       <c r="N26" s="22"/>
     </row>
     <row r="27" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28" t="s">
+      <c r="A27" s="42"/>
+      <c r="B27" s="42" t="s">
         <v>45</v>
       </c>
       <c r="C27" s="16" t="e">
         <f>Лист2!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D27" s="28"/>
+      <c r="D27" s="42"/>
       <c r="E27" s="16" t="e">
         <f>Лист2!#REF!</f>
         <v>#REF!</v>
@@ -1306,8 +1254,8 @@
         <f>C27+E27</f>
         <v>#REF!</v>
       </c>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
       <c r="K27" s="24"/>
       <c r="L27" s="25"/>
       <c r="M27" s="26" t="e">
@@ -1317,13 +1265,13 @@
       <c r="N27" s="27"/>
     </row>
     <row r="28" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
+      <c r="A28" s="43"/>
+      <c r="B28" s="43"/>
       <c r="C28" s="16" t="e">
         <f>Лист2!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D28" s="29"/>
+      <c r="D28" s="43"/>
       <c r="E28" s="16" t="e">
         <f>Лист2!#REF!</f>
         <v>#REF!</v>
@@ -1335,7 +1283,7 @@
       <c r="I28" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="J28" s="28"/>
+      <c r="J28" s="42"/>
       <c r="K28" s="16"/>
       <c r="L28" s="16"/>
       <c r="M28" s="16"/>
@@ -1345,14 +1293,14 @@
       </c>
     </row>
     <row r="29" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30"/>
+      <c r="A29" s="44"/>
+      <c r="B29" s="44"/>
       <c r="C29" s="19"/>
-      <c r="D29" s="30"/>
+      <c r="D29" s="44"/>
       <c r="E29" s="17"/>
       <c r="F29" s="15"/>
       <c r="I29" s="15"/>
-      <c r="J29" s="30"/>
+      <c r="J29" s="44"/>
       <c r="K29" s="17"/>
       <c r="L29" s="18"/>
       <c r="M29" s="18"/>
@@ -1362,8 +1310,8 @@
       </c>
     </row>
     <row r="30" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28" t="s">
+      <c r="A30" s="42"/>
+      <c r="B30" s="42" t="s">
         <v>44</v>
       </c>
       <c r="C30" s="16"/>
@@ -1376,8 +1324,8 @@
         <f t="shared" ref="F30:F35" si="0">C30+D30+E30</f>
         <v>#REF!</v>
       </c>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
       <c r="K30" s="16"/>
       <c r="L30" s="20"/>
       <c r="M30" s="16"/>
@@ -1387,8 +1335,8 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="30"/>
-      <c r="B31" s="30"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="44"/>
       <c r="C31" s="18"/>
       <c r="D31" s="15" t="e">
         <f>Лист2!#REF!</f>
@@ -1399,8 +1347,8 @@
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
       <c r="K31" s="16"/>
       <c r="L31" s="14"/>
       <c r="M31" s="16"/>
@@ -1413,7 +1361,7 @@
       <c r="A32" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="28"/>
+      <c r="B32" s="42"/>
       <c r="C32" s="16" t="e">
         <f>Лист2!#REF!</f>
         <v>#REF!</v>
@@ -1424,8 +1372,8 @@
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
       <c r="K32" s="19"/>
       <c r="L32" s="15"/>
       <c r="M32" s="17"/>
@@ -1433,7 +1381,7 @@
     </row>
     <row r="33" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="15"/>
-      <c r="B33" s="30"/>
+      <c r="B33" s="44"/>
       <c r="C33" s="17" t="e">
         <f>Лист2!#REF!</f>
         <v>#REF!</v>
@@ -1447,7 +1395,7 @@
       <c r="I33" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J33" s="28"/>
+      <c r="J33" s="42"/>
       <c r="K33" s="16"/>
       <c r="L33" s="16"/>
       <c r="M33" s="16"/>
@@ -1457,8 +1405,8 @@
       </c>
     </row>
     <row r="34" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="28"/>
-      <c r="B34" s="28" t="s">
+      <c r="A34" s="42"/>
+      <c r="B34" s="42" t="s">
         <v>45</v>
       </c>
       <c r="C34" s="16">
@@ -1471,7 +1419,7 @@
         <v>50</v>
       </c>
       <c r="I34" s="15"/>
-      <c r="J34" s="30"/>
+      <c r="J34" s="44"/>
       <c r="K34" s="17"/>
       <c r="L34" s="18"/>
       <c r="M34" s="18"/>
@@ -1481,8 +1429,8 @@
       </c>
     </row>
     <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29"/>
+      <c r="A35" s="43"/>
+      <c r="B35" s="43"/>
       <c r="C35" s="16">
         <v>10000</v>
       </c>
@@ -1492,8 +1440,8 @@
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
       <c r="K35" s="16"/>
       <c r="L35" s="20"/>
       <c r="M35" s="16"/>
@@ -1503,14 +1451,14 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="30"/>
-      <c r="B36" s="30"/>
+      <c r="A36" s="44"/>
+      <c r="B36" s="44"/>
       <c r="C36" s="19"/>
       <c r="D36" s="15"/>
       <c r="E36" s="17"/>
       <c r="F36" s="15"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
       <c r="K36" s="16"/>
       <c r="L36" s="14"/>
       <c r="M36" s="16"/>
@@ -1523,7 +1471,7 @@
       <c r="A37" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="28"/>
+      <c r="B37" s="42"/>
       <c r="C37" s="16"/>
       <c r="D37" s="16" t="e">
         <f>Лист2!#REF!</f>
@@ -1534,8 +1482,8 @@
         <f>C37+D37+E37</f>
         <v>#REF!</v>
       </c>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
       <c r="K37" s="19"/>
       <c r="L37" s="15"/>
       <c r="M37" s="17"/>
@@ -1543,7 +1491,7 @@
     </row>
     <row r="38" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="15"/>
-      <c r="B38" s="30"/>
+      <c r="B38" s="44"/>
       <c r="C38" s="17"/>
       <c r="D38" s="18" t="e">
         <f>Лист2!#REF!</f>
@@ -1556,8 +1504,8 @@
       </c>
     </row>
     <row r="39" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="28"/>
-      <c r="B39" s="28" t="s">
+      <c r="A39" s="42"/>
+      <c r="B39" s="42" t="s">
         <v>47</v>
       </c>
       <c r="C39" s="16"/>
@@ -1572,8 +1520,8 @@
       </c>
     </row>
     <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="29"/>
-      <c r="B40" s="29"/>
+      <c r="A40" s="43"/>
+      <c r="B40" s="43"/>
       <c r="C40" s="16"/>
       <c r="D40" s="14" t="e">
         <f>Лист2!#REF!</f>
@@ -1586,8 +1534,8 @@
       </c>
     </row>
     <row r="41" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="30"/>
-      <c r="B41" s="30"/>
+      <c r="A41" s="44"/>
+      <c r="B41" s="44"/>
       <c r="C41" s="19"/>
       <c r="D41" s="15"/>
       <c r="E41" s="17"/>
@@ -1595,18 +1543,11 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="J30:J32"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="I35:I37"/>
+    <mergeCell ref="J35:J37"/>
+    <mergeCell ref="B37:B38"/>
     <mergeCell ref="A39:A41"/>
     <mergeCell ref="B39:B41"/>
     <mergeCell ref="I18:N18"/>
@@ -1623,11 +1564,18 @@
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="B34:B36"/>
-    <mergeCell ref="J30:J32"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="I35:I37"/>
-    <mergeCell ref="J35:J37"/>
-    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A22:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1635,11 +1583,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1654,14 +1602,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1744,22 +1692,22 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="38">
+      <c r="A6" s="28">
         <v>44597</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="29">
         <v>2</v>
       </c>
-      <c r="F6" s="39">
+      <c r="F6" s="29">
         <f>E6/E3*F3</f>
         <v>200</v>
       </c>
@@ -1785,141 +1733,147 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="45">
+      <c r="A8" s="35">
         <v>44621</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="46">
-        <v>0</v>
-      </c>
-      <c r="F8" s="46">
+      <c r="E8" s="36">
+        <v>0</v>
+      </c>
+      <c r="F8" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="45">
+      <c r="A9" s="35">
         <v>44621</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="46">
-        <v>0</v>
-      </c>
-      <c r="F9" s="46">
+      <c r="E9" s="36">
+        <v>0</v>
+      </c>
+      <c r="F9" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="45">
+      <c r="A10" s="35">
         <v>44621</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="D10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="46">
-        <v>0</v>
-      </c>
-      <c r="F10" s="46">
+      <c r="E10" s="36">
+        <v>0</v>
+      </c>
+      <c r="F10" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="45">
+      <c r="A11" s="35">
         <v>44621</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="46" t="s">
+      <c r="D11" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="46">
-        <v>0</v>
-      </c>
-      <c r="F11" s="46">
+      <c r="E11" s="36">
+        <v>0</v>
+      </c>
+      <c r="F11" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="50">
+      <c r="A12" s="40">
         <v>44621</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51">
+      <c r="D12" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="41">
         <f>E3+E5-E6</f>
         <v>13</v>
       </c>
-      <c r="F12" s="51">
+      <c r="F12" s="41">
         <f>F3+F5-F6</f>
         <v>5800</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="50">
+      <c r="A13" s="40">
         <v>44621</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51">
+      <c r="D13" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="41">
         <f>E4</f>
         <v>50</v>
       </c>
-      <c r="F13" s="51">
+      <c r="F13" s="41">
         <f>F4</f>
         <v>10000</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="50">
+      <c r="A14" s="40">
         <v>44621</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51">
+      <c r="D14" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="41">
         <f>E7</f>
         <v>100</v>
       </c>
-      <c r="F14" s="51">
+      <c r="F14" s="41">
         <f>F7</f>
         <v>1000</v>
       </c>
@@ -1934,7 +1888,9 @@
       <c r="C15" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="9"/>
+      <c r="D15" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="E15" s="9">
         <v>100</v>
       </c>
@@ -1943,98 +1899,96 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="38">
+      <c r="A16" s="28">
         <v>44622</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="40"/>
-      <c r="E16" s="39">
+      <c r="D16" s="30"/>
+      <c r="E16" s="29">
         <v>5</v>
       </c>
-      <c r="F16" s="41">
+      <c r="F16" s="31">
         <f>E16/E12*F12</f>
         <v>2230.7692307692309</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="43">
+      <c r="A17" s="33">
         <v>44652</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44">
-        <v>0</v>
-      </c>
-      <c r="F17" s="44">
+      <c r="D17" s="34"/>
+      <c r="E17" s="34">
+        <v>0</v>
+      </c>
+      <c r="F17" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="43">
+      <c r="A18" s="33">
         <v>44652</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44">
-        <v>0</v>
-      </c>
-      <c r="F18" s="44">
+      <c r="D18" s="34"/>
+      <c r="E18" s="34">
+        <v>0</v>
+      </c>
+      <c r="F18" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="43">
+      <c r="A19" s="33">
         <v>44652</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44">
-        <v>0</v>
-      </c>
-      <c r="F19" s="44">
+      <c r="D19" s="34"/>
+      <c r="E19" s="34">
+        <v>0</v>
+      </c>
+      <c r="F19" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+      <c r="A20" s="33">
         <v>44652</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="9">
-        <f>E12-E16</f>
-        <v>8</v>
-      </c>
-      <c r="F20" s="42">
-        <f>F12-F16</f>
-        <v>3569.2307692307691</v>
+      <c r="B20" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="34">
+        <v>0</v>
+      </c>
+      <c r="F20" s="34">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -2045,18 +1999,18 @@
         <v>50</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>50</v>
       </c>
       <c r="E21" s="9">
-        <f>E13</f>
-        <v>50</v>
-      </c>
-      <c r="F21" s="9">
-        <f>F13</f>
-        <v>10000</v>
+        <f>E12-E16</f>
+        <v>8</v>
+      </c>
+      <c r="F21" s="32">
+        <f>F12-F16</f>
+        <v>3569.2307692307691</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2067,239 +2021,261 @@
         <v>50</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>50</v>
       </c>
       <c r="E22" s="9">
+        <f>E13</f>
+        <v>50</v>
+      </c>
+      <c r="F22" s="9">
+        <f>F13</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>44652</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="9">
         <f>E14+E15</f>
         <v>200</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F23" s="9">
         <f>F14+F15</f>
         <v>2000</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
-        <v>44653</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="9">
-        <v>10</v>
-      </c>
-      <c r="F23" s="9">
-        <v>5000</v>
-      </c>
-    </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
+        <v>44653</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="9">
+        <v>10</v>
+      </c>
+      <c r="F24" s="9">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
         <v>44654</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B25" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C25" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D25" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E25" s="9">
         <v>50</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F25" s="9">
         <v>10000</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="38">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="28">
         <v>44655</v>
       </c>
-      <c r="B25" s="39" t="s">
+      <c r="B26" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="39" t="s">
+      <c r="C26" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="39" t="s">
+      <c r="D26" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="39">
+      <c r="E26" s="29">
         <v>3</v>
       </c>
-      <c r="F25" s="39">
-        <f>E25/E20*F20</f>
+      <c r="F26" s="29">
+        <f>E26/E21*F21</f>
         <v>1338.4615384615383</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="38">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="28">
         <v>44655</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B27" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="39" t="s">
+      <c r="C27" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="39" t="s">
+      <c r="D27" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="39">
+      <c r="E27" s="29">
         <v>200</v>
       </c>
-      <c r="F26" s="39">
-        <f>E26/E22*F22</f>
+      <c r="F27" s="29">
+        <f>E27/E23*F23</f>
         <v>2000</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="43">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="33">
         <v>44682</v>
       </c>
-      <c r="B27" s="44" t="s">
+      <c r="B28" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="44" t="s">
+      <c r="C28" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="44" t="s">
+      <c r="D28" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="44">
-        <v>0</v>
-      </c>
-      <c r="F27" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="43">
+      <c r="E28" s="34">
+        <v>0</v>
+      </c>
+      <c r="F28" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="33">
         <v>44682</v>
       </c>
-      <c r="B28" s="44" t="s">
+      <c r="B29" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="44" t="s">
+      <c r="C29" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="44" t="s">
+      <c r="D29" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="44">
-        <v>0</v>
-      </c>
-      <c r="F28" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="43">
+      <c r="E29" s="34">
+        <v>0</v>
+      </c>
+      <c r="F29" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="33">
         <v>44682</v>
       </c>
-      <c r="B29" s="44" t="s">
+      <c r="B30" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="44" t="s">
+      <c r="C30" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="44" t="s">
+      <c r="D30" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="E29" s="44">
-        <v>0</v>
-      </c>
-      <c r="F29" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="43">
+      <c r="E30" s="34">
+        <v>0</v>
+      </c>
+      <c r="F30" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="33">
         <v>44682</v>
       </c>
-      <c r="B30" s="44" t="s">
+      <c r="B31" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="44" t="s">
+      <c r="C31" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="44" t="s">
+      <c r="D31" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="E30" s="44">
-        <v>0</v>
-      </c>
-      <c r="F30" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="47">
+      <c r="E31" s="34">
+        <v>0</v>
+      </c>
+      <c r="F31" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="37">
         <v>44682</v>
       </c>
-      <c r="B31" s="48" t="s">
+      <c r="B32" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="48" t="s">
+      <c r="C32" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48">
-        <f>E20+E23-E25</f>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38">
+        <f>E21+E24-E26</f>
         <v>15</v>
       </c>
-      <c r="F31" s="49">
-        <f>F20+F23-F25</f>
+      <c r="F32" s="39">
+        <f>F21+F24-F26</f>
         <v>7230.7692307692314</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="47">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="37">
         <v>44682</v>
       </c>
-      <c r="B32" s="48" t="s">
+      <c r="B33" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="48" t="s">
+      <c r="C33" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48">
-        <f>E21</f>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38">
+        <f>E22</f>
         <v>50</v>
       </c>
-      <c r="F32" s="48">
-        <f>F21</f>
+      <c r="F33" s="38">
+        <f>F22</f>
         <v>10000</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="47">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="37">
         <v>44682</v>
       </c>
-      <c r="B33" s="48" t="s">
+      <c r="B34" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="48" t="s">
+      <c r="C34" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48">
-        <f>E22+E24-E26</f>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38">
+        <f>E23+E25-E27</f>
         <v>50</v>
       </c>
-      <c r="F33" s="48">
-        <f>F22+F24-F26</f>
+      <c r="F34" s="38">
+        <f>F23+F25-F27</f>
         <v>10000</v>
       </c>
     </row>
@@ -2309,6 +2285,5 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>